--- a/TextTransformer.xlsx
+++ b/TextTransformer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/j.kolodziejski/Desktop/Studia_semestr_5/Inz.oprogramowania/projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/j.kolodziejski/Documents/GitHub/TextTransformer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D8D7C8D-4BDE-5143-82EC-35002B593E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18B6375-FB08-6642-810B-15A428EAC148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="3" r:id="rId1"/>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="101" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,6 +918,9 @@
       </c>
       <c r="B8" s="3">
         <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.5</v>
       </c>
       <c r="D8" s="3">
         <v>0.5</v>
@@ -972,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>

--- a/TextTransformer.xlsx
+++ b/TextTransformer.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/j.kolodziejski/Documents/GitHub/TextTransformer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18B6375-FB08-6642-810B-15A428EAC148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E90472F-D4CC-D94C-84A1-D3D9026FE29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="3" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint Backlog #1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint Backlog #2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>Element rejestru produktu</t>
   </si>
@@ -339,7 +340,29 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -404,26 +427,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Element rejestru produktu" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ważność" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pracochłonność" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Business Value (BV)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Kryteria akceptacji" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Element rejestru produktu" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ważność" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pracochłonność" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Business Value (BV)" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Kryteria akceptacji" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A4:C44" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A4:C44" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A4:C44" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Element rejestru produktu" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Zadania" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pracochłonność " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Element rejestru produktu" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Zadania" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pracochłonność " dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DA3775D-C69B-A34D-885F-2861550122D9}" name="Tabela32" displayName="Tabela32" ref="A4:C44" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A4:C44" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0F4B22C6-648C-8247-9743-A7908F31A076}" name="Element rejestru produktu" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{AD5734F7-BF7A-FC44-A7D9-153EA5E6A389}" name="Zadania" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{EEF0DFBD-D43D-5E49-9D9B-4CC37E5F9732}" name="Pracochłonność " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -786,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="101" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,7 +1010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1201,4 +1236,231 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB2017D-7384-7944-9183-956B39B7923A}">
+  <dimension ref="A2:C30"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/TextTransformer.xlsx
+++ b/TextTransformer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/j.kolodziejski/Documents/GitHub/TextTransformer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E90472F-D4CC-D94C-84A1-D3D9026FE29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B395AB9-1819-C14C-A6BE-5F419B36869D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>Element rejestru produktu</t>
   </si>
@@ -188,6 +188,21 @@
   </si>
   <si>
     <t>mechanizm Issue</t>
+  </si>
+  <si>
+    <t>Stworzenie algorytmu do odwracania ciągu znaków</t>
+  </si>
+  <si>
+    <t>Stworzenie bazy liczb</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Zaprojektowanie gui</t>
+  </si>
+  <si>
+    <t>Implementacja gui w Java Swing</t>
   </si>
 </sst>
 </file>
@@ -821,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,6 +907,9 @@
       <c r="B4" s="3">
         <v>10</v>
       </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
       <c r="D4" s="3">
         <v>0.5</v>
       </c>
@@ -906,6 +924,9 @@
       <c r="B5" s="3">
         <v>10</v>
       </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
@@ -986,7 +1007,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="3">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -1011,7 +1035,7 @@
   <dimension ref="A2:C30"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B15" sqref="B15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1240,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB2017D-7384-7944-9183-956B39B7923A}">
-  <dimension ref="A2:C30"/>
+  <dimension ref="A2:C29"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1271,7 +1295,7 @@
     </row>
     <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
@@ -1279,7 +1303,7 @@
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1287,174 +1311,56 @@
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.5</v>
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.5</v>
+      <c r="A11" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.5</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
